--- a/FINAL - 450.xlsx
+++ b/FINAL - 450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\CPDSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B0D57C-A628-45C9-A00A-A4DD35BD62E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608F7FE-954C-467B-81D8-E980FB0352D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1910,14 +1910,14 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">

--- a/FINAL - 450.xlsx
+++ b/FINAL - 450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anubh\Desktop\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608F7FE-954C-467B-81D8-E980FB0352D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093EE7C8-2FE4-4592-86EB-8FC51EE49560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1849,29 +1849,29 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="108.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="26" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="2" max="2" width="108.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
+    <col min="4" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1880,10 +1880,10 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="C8" s="17"/>
     </row>
-    <row r="9" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="C9" s="17"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C19" s="10"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>4</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C24" s="10"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C29" s="10"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
         <v>4</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>4</v>
       </c>
@@ -2207,16 +2207,16 @@
       </c>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
         <v>41</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="C45" s="10"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12" t="s">
         <v>41</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C46" s="10"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12" t="s">
         <v>41</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C47" s="10"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>41</v>
       </c>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C49" s="10"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>41</v>
       </c>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="C50" s="10"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>41</v>
       </c>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="C51" s="10"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>41</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="C52" s="10"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>41</v>
       </c>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>52</v>
       </c>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>52</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C61" s="10"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="6" t="s">
         <v>52</v>
       </c>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>52</v>
       </c>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="C64" s="10"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6" t="s">
         <v>52</v>
       </c>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="6" t="s">
         <v>52</v>
       </c>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C66" s="9"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>52</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C67" s="10"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6" t="s">
         <v>52</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C68" s="10"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6" t="s">
         <v>52</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C69" s="10"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>52</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="6" t="s">
         <v>52</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C71" s="10"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6" t="s">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C72" s="10"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>52</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C73" s="10"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="6" t="s">
         <v>52</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C74" s="10"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="6" t="s">
         <v>52</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>52</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C76" s="10"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>52</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="C77" s="10"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>52</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="C78" s="10"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>52</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C79" s="10"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="6" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C80" s="10"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="6" t="s">
         <v>52</v>
       </c>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C81" s="10"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>52</v>
       </c>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C82" s="10"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6" t="s">
         <v>52</v>
       </c>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C83" s="10"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6" t="s">
         <v>52</v>
       </c>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="C84" s="10"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>52</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>52</v>
       </c>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>52</v>
       </c>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>52</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>52</v>
       </c>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
         <v>52</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>52</v>
       </c>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="6" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="6" t="s">
         <v>52</v>
       </c>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>52</v>
       </c>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6" t="s">
         <v>52</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6" t="s">
         <v>52</v>
       </c>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>52</v>
       </c>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>52</v>
       </c>
@@ -2699,13 +2699,13 @@
       </c>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="12"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6" t="s">
         <v>96</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6" t="s">
         <v>96</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>96</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="6" t="s">
         <v>96</v>
       </c>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
         <v>96</v>
       </c>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>96</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6" t="s">
         <v>96</v>
       </c>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6" t="s">
         <v>96</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>96</v>
       </c>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="6" t="s">
         <v>96</v>
       </c>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="6" t="s">
         <v>96</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>96</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6" t="s">
         <v>96</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C113" s="10"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>96</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>96</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="6" t="s">
         <v>96</v>
       </c>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="6" t="s">
         <v>96</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>96</v>
       </c>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="6" t="s">
         <v>96</v>
       </c>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="6" t="s">
         <v>96</v>
       </c>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>96</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>96</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="6" t="s">
         <v>96</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>96</v>
       </c>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="6" t="s">
         <v>96</v>
       </c>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="6" t="s">
         <v>96</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>96</v>
       </c>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="6" t="s">
         <v>96</v>
       </c>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="6" t="s">
         <v>96</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C129" s="10"/>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>96</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="C130" s="10"/>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="6" t="s">
         <v>96</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="C131" s="10"/>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="6" t="s">
         <v>96</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C132" s="10"/>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>96</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="C133" s="10"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="6" t="s">
         <v>96</v>
       </c>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C134" s="10"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="6" t="s">
         <v>96</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C135" s="10"/>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>96</v>
       </c>
@@ -3029,12 +3029,12 @@
       </c>
       <c r="C136" s="10"/>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="12" t="s">
         <v>133</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="12" t="s">
         <v>133</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="C140" s="10"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="12" t="s">
         <v>133</v>
       </c>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="12" t="s">
         <v>133</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C142" s="10"/>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="12" t="s">
         <v>133</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C143" s="10"/>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="12" t="s">
         <v>133</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C144" s="10"/>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="12" t="s">
         <v>133</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C145" s="10"/>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="12" t="s">
         <v>133</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="C146" s="10"/>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="12" t="s">
         <v>133</v>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C147" s="10"/>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="12" t="s">
         <v>133</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C148" s="10"/>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="12" t="s">
         <v>133</v>
       </c>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="C149" s="10"/>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="12" t="s">
         <v>133</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C150" s="10"/>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="12" t="s">
         <v>133</v>
       </c>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="C151" s="10"/>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="12" t="s">
         <v>133</v>
       </c>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C152" s="10"/>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="12" t="s">
         <v>133</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="C153" s="10"/>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="12" t="s">
         <v>133</v>
       </c>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="12" t="s">
         <v>133</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="C155" s="10"/>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="12" t="s">
         <v>133</v>
       </c>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C156" s="10"/>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="12" t="s">
         <v>133</v>
       </c>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="C157" s="10"/>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="12" t="s">
         <v>133</v>
       </c>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C158" s="10"/>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="12" t="s">
         <v>133</v>
       </c>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C159" s="10"/>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="12" t="s">
         <v>133</v>
       </c>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C160" s="10"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="12" t="s">
         <v>133</v>
       </c>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C161" s="10"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="12" t="s">
         <v>133</v>
       </c>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="12" t="s">
         <v>133</v>
       </c>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C163" s="10"/>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="12" t="s">
         <v>133</v>
       </c>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="12" t="s">
         <v>133</v>
       </c>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="12" t="s">
         <v>133</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C166" s="10"/>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="12" t="s">
         <v>133</v>
       </c>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C167" s="10"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="12" t="s">
         <v>133</v>
       </c>
@@ -3304,7 +3304,7 @@
       </c>
       <c r="C168" s="10"/>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="12" t="s">
         <v>133</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C169" s="10"/>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="12" t="s">
         <v>133</v>
       </c>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C170" s="10"/>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="12" t="s">
         <v>133</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="C171" s="10"/>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="12" t="s">
         <v>133</v>
       </c>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C172" s="10"/>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="12" t="s">
         <v>133</v>
       </c>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="C173" s="10"/>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="12" t="s">
         <v>133</v>
       </c>
@@ -3358,12 +3358,12 @@
       </c>
       <c r="C174" s="10"/>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="6" t="s">
         <v>170</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C177" s="10"/>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>170</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C178" s="10"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="6" t="s">
         <v>170</v>
       </c>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C179" s="10"/>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="6" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="C180" s="10"/>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>170</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C181" s="10"/>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="6" t="s">
         <v>170</v>
       </c>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C182" s="10"/>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="6" t="s">
         <v>170</v>
       </c>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="C183" s="10"/>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>170</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="C184" s="10"/>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="6" t="s">
         <v>170</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
       <c r="C185" s="10"/>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="6" t="s">
         <v>170</v>
       </c>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="C186" s="10"/>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>170</v>
       </c>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C187" s="10"/>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="6" t="s">
         <v>170</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C188" s="10"/>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="6" t="s">
         <v>170</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C189" s="10"/>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>170</v>
       </c>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C190" s="10"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="6" t="s">
         <v>170</v>
       </c>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="C191" s="10"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="6" t="s">
         <v>170</v>
       </c>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="C192" s="10"/>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>170</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C193" s="10"/>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="6" t="s">
         <v>170</v>
       </c>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="C194" s="10"/>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="6" t="s">
         <v>170</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="C195" s="10"/>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>170</v>
       </c>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="C196" s="10"/>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="6" t="s">
         <v>170</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C197" s="10"/>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="6" t="s">
         <v>170</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C198" s="10"/>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>170</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C199" s="10"/>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="6" t="s">
         <v>170</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="C200" s="10"/>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="6" t="s">
         <v>170</v>
       </c>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C201" s="10"/>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>170</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="C202" s="10"/>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="6" t="s">
         <v>170</v>
       </c>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="C203" s="10"/>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="6" t="s">
         <v>170</v>
       </c>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="C204" s="10"/>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>170</v>
       </c>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C205" s="10"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="6" t="s">
         <v>170</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C206" s="10"/>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="6" t="s">
         <v>170</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C207" s="10"/>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>170</v>
       </c>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="C208" s="10"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="6" t="s">
         <v>170</v>
       </c>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="C209" s="10"/>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="6" t="s">
         <v>170</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="C210" s="10"/>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>170</v>
       </c>
@@ -3678,17 +3678,17 @@
       </c>
       <c r="C211" s="10"/>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="12"/>
       <c r="B212" s="11"/>
       <c r="C212" s="10"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="12"/>
       <c r="B213" s="11"/>
       <c r="C213" s="10"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>206</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C214" s="10"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="6" t="s">
         <v>206</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="C215" s="10"/>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="6" t="s">
         <v>206</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="C216" s="10"/>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>206</v>
       </c>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C217" s="10"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="6" t="s">
         <v>206</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="C218" s="10"/>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>206</v>
       </c>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="C219" s="10"/>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>206</v>
       </c>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="C220" s="10"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="6" t="s">
         <v>206</v>
       </c>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C221" s="10"/>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="6" t="s">
         <v>206</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C222" s="10"/>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>206</v>
       </c>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C223" s="10"/>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="6" t="s">
         <v>206</v>
       </c>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="C224" s="10"/>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="6" t="s">
         <v>206</v>
       </c>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="C225" s="10"/>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>206</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="C226" s="10"/>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>206</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="C227" s="10"/>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="6" t="s">
         <v>206</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="C228" s="10"/>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>206</v>
       </c>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C229" s="10"/>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="6" t="s">
         <v>206</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C230" s="10"/>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="6" t="s">
         <v>206</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C231" s="10"/>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>206</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C232" s="10"/>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="6" t="s">
         <v>206</v>
       </c>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C233" s="10"/>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="6" t="s">
         <v>206</v>
       </c>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="C234" s="10"/>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>206</v>
       </c>
@@ -3886,15 +3886,15 @@
       </c>
       <c r="C235" s="10"/>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B236" s="11"/>
       <c r="C236" s="10"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B237" s="11"/>
       <c r="C237" s="10"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>229</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C238" s="10"/>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="6" t="s">
         <v>229</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="C239" s="10"/>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="6" t="s">
         <v>229</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="C240" s="10"/>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>229</v>
       </c>
@@ -3930,7 +3930,7 @@
       </c>
       <c r="C241" s="10"/>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="6" t="s">
         <v>229</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="C242" s="10"/>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="6" t="s">
         <v>229</v>
       </c>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C243" s="10"/>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="6" t="s">
         <v>229</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="C244" s="10"/>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="6" t="s">
         <v>229</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C245" s="10"/>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="6" t="s">
         <v>229</v>
       </c>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="C246" s="10"/>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="6" t="s">
         <v>229</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="C247" s="10"/>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="6" t="s">
         <v>229</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="C248" s="10"/>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="6" t="s">
         <v>229</v>
       </c>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C249" s="10"/>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A250" s="6" t="s">
         <v>229</v>
       </c>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="C250" s="10"/>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A251" s="6" t="s">
         <v>229</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="C251" s="10"/>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A252" s="6" t="s">
         <v>229</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="C252" s="10"/>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A253" s="6" t="s">
         <v>229</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="C253" s="10"/>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A254" s="6" t="s">
         <v>229</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C254" s="10"/>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A255" s="6" t="s">
         <v>229</v>
       </c>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C255" s="10"/>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A256" s="6" t="s">
         <v>229</v>
       </c>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="C256" s="10"/>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>229</v>
       </c>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="C257" s="10"/>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A258" s="6" t="s">
         <v>229</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="C258" s="10"/>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A259" s="6" t="s">
         <v>229</v>
       </c>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C259" s="10"/>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A260" s="6" t="s">
         <v>229</v>
       </c>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C260" s="10"/>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A261" s="6" t="s">
         <v>229</v>
       </c>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C261" s="10"/>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A262" s="6" t="s">
         <v>229</v>
       </c>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="C262" s="10"/>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A263" s="6" t="s">
         <v>229</v>
       </c>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C263" s="10"/>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A264" s="6" t="s">
         <v>229</v>
       </c>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="C264" s="10"/>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A265" s="6" t="s">
         <v>229</v>
       </c>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C265" s="10"/>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A266" s="6" t="s">
         <v>229</v>
       </c>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="C266" s="10"/>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A267" s="6" t="s">
         <v>229</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="C267" s="10"/>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A268" s="6" t="s">
         <v>229</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="C268" s="10"/>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A269" s="6" t="s">
         <v>229</v>
       </c>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C269" s="10"/>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A270" s="6" t="s">
         <v>229</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C270" s="10"/>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>229</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="C271" s="10"/>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A272" s="6" t="s">
         <v>229</v>
       </c>
@@ -4209,15 +4209,15 @@
       </c>
       <c r="C272" s="10"/>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B273" s="11"/>
       <c r="C273" s="10"/>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B274" s="11"/>
       <c r="C274" s="10"/>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A275" s="6" t="s">
         <v>264</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="C275" s="10"/>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A276" s="6" t="s">
         <v>264</v>
       </c>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="C276" s="10"/>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A277" s="6" t="s">
         <v>264</v>
       </c>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="C277" s="10"/>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A278" s="6" t="s">
         <v>264</v>
       </c>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="C278" s="10"/>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A279" s="6" t="s">
         <v>264</v>
       </c>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C279" s="10"/>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A280" s="6" t="s">
         <v>264</v>
       </c>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C280" s="10"/>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A281" s="6" t="s">
         <v>264</v>
       </c>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C281" s="10"/>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A282" s="6" t="s">
         <v>264</v>
       </c>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="C282" s="10"/>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A283" s="6" t="s">
         <v>264</v>
       </c>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="C283" s="10"/>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A284" s="6" t="s">
         <v>264</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="C284" s="10"/>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A285" s="6" t="s">
         <v>264</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C285" s="10"/>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A286" s="6" t="s">
         <v>264</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C286" s="10"/>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A287" s="6" t="s">
         <v>264</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="C287" s="10"/>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A288" s="6" t="s">
         <v>264</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C288" s="10"/>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A289" s="6" t="s">
         <v>264</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="C289" s="10"/>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A290" s="6" t="s">
         <v>264</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="C290" s="10"/>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A291" s="6" t="s">
         <v>264</v>
       </c>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C291" s="10"/>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A292" s="6" t="s">
         <v>264</v>
       </c>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C292" s="10"/>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A293" s="6" t="s">
         <v>264</v>
       </c>
@@ -4388,15 +4388,15 @@
       </c>
       <c r="C293" s="10"/>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B294" s="11"/>
       <c r="C294" s="10"/>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B295" s="11"/>
       <c r="C295" s="10"/>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A296" s="6" t="s">
         <v>284</v>
       </c>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="C296" s="10"/>
     </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A297" s="6" t="s">
         <v>284</v>
       </c>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="C297" s="10"/>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A298" s="6" t="s">
         <v>284</v>
       </c>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="C298" s="10"/>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A299" s="6" t="s">
         <v>284</v>
       </c>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="C299" s="10"/>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A300" s="6" t="s">
         <v>284</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C300" s="10"/>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A301" s="6" t="s">
         <v>284</v>
       </c>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="C301" s="10"/>
     </row>
-    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A302" s="6" t="s">
         <v>284</v>
       </c>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="C302" s="10"/>
     </row>
-    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A303" s="6" t="s">
         <v>284</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="C303" s="10"/>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A304" s="6" t="s">
         <v>284</v>
       </c>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="C304" s="10"/>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A305" s="6" t="s">
         <v>284</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="C305" s="10"/>
     </row>
-    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A306" s="6" t="s">
         <v>284</v>
       </c>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C306" s="10"/>
     </row>
-    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A307" s="6" t="s">
         <v>284</v>
       </c>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="C307" s="10"/>
     </row>
-    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A308" s="6" t="s">
         <v>284</v>
       </c>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="C308" s="10"/>
     </row>
-    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A309" s="6" t="s">
         <v>284</v>
       </c>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C309" s="10"/>
     </row>
-    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A310" s="6" t="s">
         <v>284</v>
       </c>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="C310" s="10"/>
     </row>
-    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="6" t="s">
         <v>284</v>
       </c>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="C311" s="10"/>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A312" s="6" t="s">
         <v>284</v>
       </c>
@@ -4549,7 +4549,7 @@
       </c>
       <c r="C312" s="10"/>
     </row>
-    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A313" s="6" t="s">
         <v>284</v>
       </c>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C313" s="10"/>
     </row>
-    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A314" s="6" t="s">
         <v>284</v>
       </c>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C314" s="10"/>
     </row>
-    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A315" s="6" t="s">
         <v>284</v>
       </c>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C315" s="10"/>
     </row>
-    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A316" s="6" t="s">
         <v>284</v>
       </c>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="C316" s="10"/>
     </row>
-    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A317" s="6" t="s">
         <v>284</v>
       </c>
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C317" s="10"/>
     </row>
-    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A318" s="6" t="s">
         <v>284</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="C318" s="10"/>
     </row>
-    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A319" s="6" t="s">
         <v>284</v>
       </c>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="C319" s="10"/>
     </row>
-    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A320" s="6" t="s">
         <v>284</v>
       </c>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="C320" s="10"/>
     </row>
-    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A321" s="6" t="s">
         <v>284</v>
       </c>
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C321" s="10"/>
     </row>
-    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A322" s="6" t="s">
         <v>284</v>
       </c>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="C322" s="10"/>
     </row>
-    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A323" s="6" t="s">
         <v>284</v>
       </c>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="C323" s="10"/>
     </row>
-    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A324" s="6" t="s">
         <v>284</v>
       </c>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="C324" s="10"/>
     </row>
-    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A325" s="6" t="s">
         <v>284</v>
       </c>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C325" s="10"/>
     </row>
-    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A326" s="6" t="s">
         <v>284</v>
       </c>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="C326" s="10"/>
     </row>
-    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A327" s="6" t="s">
         <v>284</v>
       </c>
@@ -4684,7 +4684,7 @@
       </c>
       <c r="C327" s="10"/>
     </row>
-    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A328" s="6" t="s">
         <v>284</v>
       </c>
@@ -4693,7 +4693,7 @@
       </c>
       <c r="C328" s="10"/>
     </row>
-    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A329" s="6" t="s">
         <v>284</v>
       </c>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C329" s="10"/>
     </row>
-    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A330" s="6" t="s">
         <v>284</v>
       </c>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="C330" s="10"/>
     </row>
-    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A331" s="6" t="s">
         <v>284</v>
       </c>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="C331" s="10"/>
     </row>
-    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A332" s="6" t="s">
         <v>284</v>
       </c>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="C332" s="10"/>
     </row>
-    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A333" s="6" t="s">
         <v>284</v>
       </c>
@@ -4738,15 +4738,15 @@
       </c>
       <c r="C333" s="10"/>
     </row>
-    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B334" s="11"/>
       <c r="C334" s="10"/>
     </row>
-    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B335" s="11"/>
       <c r="C335" s="10"/>
     </row>
-    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A336" s="12" t="s">
         <v>323</v>
       </c>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="C336" s="10"/>
     </row>
-    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A337" s="12" t="s">
         <v>323</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C337" s="10"/>
     </row>
-    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" s="12" t="s">
         <v>323</v>
       </c>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C338" s="10"/>
     </row>
-    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" s="12" t="s">
         <v>323</v>
       </c>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="C339" s="10"/>
     </row>
-    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" s="12" t="s">
         <v>323</v>
       </c>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C340" s="10"/>
     </row>
-    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" s="12" t="s">
         <v>323</v>
       </c>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="C341" s="10"/>
     </row>
-    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" s="12" t="s">
         <v>323</v>
       </c>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="C342" s="10"/>
     </row>
-    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" s="12" t="s">
         <v>323</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C343" s="10"/>
     </row>
-    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" s="12" t="s">
         <v>323</v>
       </c>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C344" s="10"/>
     </row>
-    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A345" s="12" t="s">
         <v>323</v>
       </c>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C345" s="10"/>
     </row>
-    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A346" s="12" t="s">
         <v>323</v>
       </c>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="C346" s="10"/>
     </row>
-    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A347" s="12" t="s">
         <v>323</v>
       </c>
@@ -4854,7 +4854,7 @@
       </c>
       <c r="C347" s="10"/>
     </row>
-    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A348" s="12" t="s">
         <v>323</v>
       </c>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="C348" s="10"/>
     </row>
-    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A349" s="12" t="s">
         <v>323</v>
       </c>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C349" s="10"/>
     </row>
-    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A350" s="12" t="s">
         <v>323</v>
       </c>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="C350" s="10"/>
     </row>
-    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" s="12" t="s">
         <v>323</v>
       </c>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="C351" s="10"/>
     </row>
-    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" s="12" t="s">
         <v>323</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="C352" s="10"/>
     </row>
-    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A353" s="12" t="s">
         <v>323</v>
       </c>
@@ -4908,15 +4908,15 @@
       </c>
       <c r="C353" s="10"/>
     </row>
-    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B354" s="11"/>
       <c r="C354" s="10"/>
     </row>
-    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B355" s="11"/>
       <c r="C355" s="10"/>
     </row>
-    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A356" s="12" t="s">
         <v>342</v>
       </c>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="C356" s="10"/>
     </row>
-    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A357" s="12" t="s">
         <v>342</v>
       </c>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="C357" s="10"/>
     </row>
-    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A358" s="12" t="s">
         <v>342</v>
       </c>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="C358" s="10"/>
     </row>
-    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A359" s="12" t="s">
         <v>342</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C359" s="10"/>
     </row>
-    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" s="12" t="s">
         <v>342</v>
       </c>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C360" s="10"/>
     </row>
-    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A361" s="12" t="s">
         <v>342</v>
       </c>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C361" s="10"/>
     </row>
-    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A362" s="12" t="s">
         <v>342</v>
       </c>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="C362" s="10"/>
     </row>
-    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A363" s="12" t="s">
         <v>342</v>
       </c>
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C363" s="10"/>
     </row>
-    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A364" s="12" t="s">
         <v>342</v>
       </c>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C364" s="10"/>
     </row>
-    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A365" s="12" t="s">
         <v>342</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C365" s="10"/>
     </row>
-    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A366" s="12" t="s">
         <v>342</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C366" s="10"/>
     </row>
-    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A367" s="12" t="s">
         <v>342</v>
       </c>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="C367" s="10"/>
     </row>
-    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A368" s="12" t="s">
         <v>342</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="C368" s="10"/>
     </row>
-    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A369" s="12" t="s">
         <v>342</v>
       </c>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C369" s="10"/>
     </row>
-    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A370" s="12" t="s">
         <v>342</v>
       </c>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="C370" s="10"/>
     </row>
-    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" s="12" t="s">
         <v>342</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="C371" s="10"/>
     </row>
-    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" s="12" t="s">
         <v>342</v>
       </c>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="C372" s="10"/>
     </row>
-    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" s="12" t="s">
         <v>342</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C373" s="10"/>
     </row>
-    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A374" s="12" t="s">
         <v>342</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
       <c r="C374" s="10"/>
     </row>
-    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A375" s="12" t="s">
         <v>342</v>
       </c>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C375" s="10"/>
     </row>
-    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A376" s="12" t="s">
         <v>342</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="C376" s="10"/>
     </row>
-    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A377" s="12" t="s">
         <v>342</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="C377" s="10"/>
     </row>
-    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A378" s="12" t="s">
         <v>342</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="C378" s="10"/>
     </row>
-    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A379" s="12" t="s">
         <v>342</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C379" s="10"/>
     </row>
-    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A380" s="12" t="s">
         <v>342</v>
       </c>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C380" s="10"/>
     </row>
-    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A381" s="12" t="s">
         <v>342</v>
       </c>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="C381" s="10"/>
     </row>
-    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A382" s="12" t="s">
         <v>342</v>
       </c>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="C382" s="10"/>
     </row>
-    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" s="12" t="s">
         <v>342</v>
       </c>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C383" s="10"/>
     </row>
-    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" s="12" t="s">
         <v>342</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="C384" s="10"/>
     </row>
-    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" s="12" t="s">
         <v>342</v>
       </c>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="C385" s="10"/>
     </row>
-    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" s="12" t="s">
         <v>342</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="C386" s="10"/>
     </row>
-    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" s="12" t="s">
         <v>342</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C387" s="10"/>
     </row>
-    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" s="12" t="s">
         <v>342</v>
       </c>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="C388" s="10"/>
     </row>
-    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" s="12" t="s">
         <v>342</v>
       </c>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C389" s="10"/>
     </row>
-    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" s="12" t="s">
         <v>342</v>
       </c>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="C390" s="10"/>
     </row>
-    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" s="12" t="s">
         <v>342</v>
       </c>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="C391" s="10"/>
     </row>
-    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A392" s="12" t="s">
         <v>342</v>
       </c>
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C392" s="10"/>
     </row>
-    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" s="12" t="s">
         <v>342</v>
       </c>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="C393" s="10"/>
     </row>
-    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" s="12" t="s">
         <v>342</v>
       </c>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C394" s="10"/>
     </row>
-    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" s="12" t="s">
         <v>342</v>
       </c>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="C395" s="10"/>
     </row>
-    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" s="12" t="s">
         <v>342</v>
       </c>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="C396" s="10"/>
     </row>
-    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" s="12" t="s">
         <v>342</v>
       </c>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C397" s="10"/>
     </row>
-    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" s="12" t="s">
         <v>342</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="C398" s="10"/>
     </row>
-    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" s="12" t="s">
         <v>342</v>
       </c>
@@ -5312,15 +5312,15 @@
       </c>
       <c r="C399" s="10"/>
     </row>
-    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B400" s="11"/>
       <c r="C400" s="10"/>
     </row>
-    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B401" s="11"/>
       <c r="C401" s="10"/>
     </row>
-    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" s="12" t="s">
         <v>386</v>
       </c>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C402" s="10"/>
     </row>
-    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" s="12" t="s">
         <v>386</v>
       </c>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="C403" s="10"/>
     </row>
-    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" s="12" t="s">
         <v>386</v>
       </c>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="C404" s="10"/>
     </row>
-    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" s="12" t="s">
         <v>386</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="C405" s="10"/>
     </row>
-    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" s="12" t="s">
         <v>386</v>
       </c>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C406" s="10"/>
     </row>
-    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" s="12" t="s">
         <v>386</v>
       </c>
@@ -5374,15 +5374,15 @@
       </c>
       <c r="C407" s="10"/>
     </row>
-    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B408" s="11"/>
       <c r="C408" s="10"/>
     </row>
-    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B409" s="11"/>
       <c r="C409" s="10"/>
     </row>
-    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="6" t="s">
         <v>392</v>
       </c>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C410" s="10"/>
     </row>
-    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="6" t="s">
         <v>392</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
       <c r="C411" s="10"/>
     </row>
-    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" s="6" t="s">
         <v>392</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="C412" s="10"/>
     </row>
-    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" s="6" t="s">
         <v>392</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C413" s="10"/>
     </row>
-    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>392</v>
       </c>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C414" s="10"/>
     </row>
-    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" s="6" t="s">
         <v>392</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="C415" s="10"/>
     </row>
-    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" s="6" t="s">
         <v>392</v>
       </c>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="C416" s="10"/>
     </row>
-    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" s="6" t="s">
         <v>392</v>
       </c>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="C417" s="10"/>
     </row>
-    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" s="6" t="s">
         <v>392</v>
       </c>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="C418" s="10"/>
     </row>
-    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" s="6" t="s">
         <v>392</v>
       </c>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C419" s="10"/>
     </row>
-    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="6" t="s">
         <v>392</v>
       </c>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C420" s="10"/>
     </row>
-    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="6" t="s">
         <v>392</v>
       </c>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C421" s="10"/>
     </row>
-    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="6" t="s">
         <v>392</v>
       </c>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="C422" s="10"/>
     </row>
-    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" s="6" t="s">
         <v>392</v>
       </c>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C423" s="10"/>
     </row>
-    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" s="6" t="s">
         <v>392</v>
       </c>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="C424" s="10"/>
     </row>
-    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" s="6" t="s">
         <v>392</v>
       </c>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="C425" s="10"/>
     </row>
-    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" s="6" t="s">
         <v>392</v>
       </c>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="C426" s="10"/>
     </row>
-    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" s="6" t="s">
         <v>392</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="C427" s="10"/>
     </row>
-    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" s="6" t="s">
         <v>392</v>
       </c>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="C428" s="10"/>
     </row>
-    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="6" t="s">
         <v>392</v>
       </c>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C429" s="10"/>
     </row>
-    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" s="6" t="s">
         <v>392</v>
       </c>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="C430" s="10"/>
     </row>
-    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A431" s="6" t="s">
         <v>392</v>
       </c>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="C431" s="10"/>
     </row>
-    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="6" t="s">
         <v>392</v>
       </c>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="C432" s="10"/>
     </row>
-    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="6" t="s">
         <v>392</v>
       </c>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="C433" s="10"/>
     </row>
-    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="6" t="s">
         <v>392</v>
       </c>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="C434" s="10"/>
     </row>
-    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="6" t="s">
         <v>392</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C435" s="10"/>
     </row>
-    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="6" t="s">
         <v>392</v>
       </c>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="C436" s="10"/>
     </row>
-    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="6" t="s">
         <v>392</v>
       </c>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="C437" s="10"/>
     </row>
-    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="6" t="s">
         <v>392</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="C438" s="10"/>
     </row>
-    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="6" t="s">
         <v>392</v>
       </c>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C439" s="10"/>
     </row>
-    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="6" t="s">
         <v>392</v>
       </c>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="C440" s="10"/>
     </row>
-    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="6" t="s">
         <v>392</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="C441" s="10"/>
     </row>
-    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="6" t="s">
         <v>392</v>
       </c>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="C442" s="10"/>
     </row>
-    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="6" t="s">
         <v>392</v>
       </c>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C443" s="10"/>
     </row>
-    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="6" t="s">
         <v>392</v>
       </c>
@@ -5697,7 +5697,7 @@
       </c>
       <c r="C444" s="10"/>
     </row>
-    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="6" t="s">
         <v>392</v>
       </c>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C445" s="10"/>
     </row>
-    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="6" t="s">
         <v>392</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C446" s="10"/>
     </row>
-    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="6" t="s">
         <v>392</v>
       </c>
@@ -5724,7 +5724,7 @@
       </c>
       <c r="C447" s="10"/>
     </row>
-    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="6" t="s">
         <v>392</v>
       </c>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="C448" s="10"/>
     </row>
-    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="6" t="s">
         <v>392</v>
       </c>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C449" s="10"/>
     </row>
-    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="6" t="s">
         <v>392</v>
       </c>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C450" s="10"/>
     </row>
-    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="6" t="s">
         <v>392</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="C451" s="10"/>
     </row>
-    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="6" t="s">
         <v>392</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="C452" s="10"/>
     </row>
-    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="6" t="s">
         <v>392</v>
       </c>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="C453" s="10"/>
     </row>
-    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="6" t="s">
         <v>392</v>
       </c>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="C454" s="10"/>
     </row>
-    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>392</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="C455" s="10"/>
     </row>
-    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="6" t="s">
         <v>392</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C456" s="10"/>
     </row>
-    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="6" t="s">
         <v>392</v>
       </c>
@@ -5814,7 +5814,7 @@
       </c>
       <c r="C457" s="10"/>
     </row>
-    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="6" t="s">
         <v>392</v>
       </c>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="C458" s="10"/>
     </row>
-    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="6" t="s">
         <v>392</v>
       </c>
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C459" s="10"/>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="6" t="s">
         <v>392</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C460" s="10"/>
     </row>
-    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="6" t="s">
         <v>392</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="C461" s="10"/>
     </row>
-    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="6" t="s">
         <v>392</v>
       </c>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="C462" s="10"/>
     </row>
-    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" s="6" t="s">
         <v>392</v>
       </c>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="C463" s="10"/>
     </row>
-    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" s="6" t="s">
         <v>392</v>
       </c>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C464" s="10"/>
     </row>
-    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="6" t="s">
         <v>392</v>
       </c>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C465" s="10"/>
     </row>
-    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="6" t="s">
         <v>392</v>
       </c>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="C466" s="10"/>
     </row>
-    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="6" t="s">
         <v>392</v>
       </c>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="C467" s="10"/>
     </row>
-    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="6" t="s">
         <v>392</v>
       </c>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="C468" s="10"/>
     </row>
-    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A469" s="6" t="s">
         <v>392</v>
       </c>
@@ -5922,16 +5922,16 @@
       </c>
       <c r="C469" s="10"/>
     </row>
-    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B470" s="11"/>
       <c r="C470" s="10"/>
     </row>
-    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A471" s="12"/>
       <c r="B471" s="11"/>
       <c r="C471" s="10"/>
     </row>
-    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A472" s="6" t="s">
         <v>452</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="C472" s="10"/>
     </row>
-    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A473" s="6" t="s">
         <v>452</v>
       </c>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="C473" s="10"/>
     </row>
-    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A474" s="6" t="s">
         <v>452</v>
       </c>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C474" s="10"/>
     </row>
-    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A475" s="6" t="s">
         <v>452</v>
       </c>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="C475" s="10"/>
     </row>
-    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A476" s="6" t="s">
         <v>452</v>
       </c>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="C476" s="10"/>
     </row>
-    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A477" s="6" t="s">
         <v>452</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="C477" s="10"/>
     </row>
-    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" s="6" t="s">
         <v>452</v>
       </c>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C478" s="10"/>
     </row>
-    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="6" t="s">
         <v>452</v>
       </c>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="C479" s="10"/>
     </row>
-    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="6" t="s">
         <v>452</v>
       </c>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="C480" s="10"/>
     </row>
-    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A481" s="6" t="s">
         <v>452</v>
       </c>
@@ -6021,525 +6021,525 @@
       </c>
       <c r="C481" s="10"/>
     </row>
-    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7003,27 +7003,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>466</v>
       </c>
@@ -7042,27 +7042,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>470</v>
       </c>
@@ -7086,12 +7086,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>471</v>
       </c>
@@ -7099,12 +7099,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>474</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>475</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>476</v>
       </c>
@@ -7146,12 +7146,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="1" max="1" width="46.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>477</v>
       </c>
